--- a/specs/adpc_spec.xlsx
+++ b/specs/adpc_spec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://navitaslsnam-my.sharepoint.com/personal/jeff_dickinson_navitaslifesciences_com/Documents/R/admiral_dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dickinsj\OneDrive - Navitas Life Sciences\R\admiral_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{4DE6212B-EF3C-487C-8C20-0E09FC6F502B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{97CC4E9B-0562-4C6C-AF4A-26154D0C90A7}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{1BC2E149-2100-44A3-97A9-14EB1727D038}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF4296E-5A41-4F3A-8849-7C7C89C6AFD3}"/>
   <bookViews>
     <workbookView xWindow="25980" yWindow="-1440" windowWidth="26295" windowHeight="14310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="627">
   <si>
     <t>Attribute</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Study Identifier</t>
-  </si>
-  <si>
-    <t>Char</t>
   </si>
   <si>
     <t>Source</t>
@@ -2826,35 +2823,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" t="s">
         <v>427</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>428</v>
-      </c>
-      <c r="C2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" t="s">
         <v>430</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>431</v>
-      </c>
-      <c r="C3" t="s">
-        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -2882,27 +2879,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -2964,19 +2961,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>24</v>
@@ -3004,10 +3001,10 @@
   <dimension ref="A1:S123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomRight" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3097,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>43</v>
@@ -3106,16 +3103,16 @@
         <v>44</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F2" s="13">
         <v>21</v>
       </c>
       <c r="K2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>22</v>
@@ -3126,25 +3123,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F3" s="13">
         <v>5</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S3" s="13" t="s">
         <v>22</v>
@@ -3155,25 +3152,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F4" s="13">
         <v>30</v>
       </c>
       <c r="K4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="S4" s="13" t="s">
         <v>22</v>
@@ -3184,16 +3181,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F5" s="13">
         <v>8</v>
@@ -3203,7 +3200,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -3212,7 +3209,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -3220,25 +3217,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F6" s="13">
         <v>3</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S6" s="13" t="s">
         <v>22</v>
@@ -3249,25 +3246,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="F7" s="13">
         <v>8</v>
       </c>
       <c r="K7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="S7" s="13" t="s">
         <v>22</v>
@@ -3278,25 +3275,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F8" s="13">
         <v>10</v>
       </c>
       <c r="K8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="S8" s="13" t="s">
         <v>22</v>
@@ -3307,25 +3304,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F9" s="13">
         <v>20</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S9" s="13" t="s">
         <v>22</v>
@@ -3336,25 +3333,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="K10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="S10" s="13" t="s">
         <v>22</v>
@@ -3365,25 +3362,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F11" s="13">
         <v>60</v>
       </c>
       <c r="K11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="S11" s="13" t="s">
         <v>22</v>
@@ -3394,25 +3391,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" t="s">
-        <v>71</v>
-      </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F12">
         <v>200</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S12" t="s">
         <v>22</v>
@@ -3423,16 +3420,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -3443,16 +3440,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C14" t="s">
+        <v>562</v>
+      </c>
+      <c r="D14" t="s">
         <v>563</v>
       </c>
-      <c r="D14" t="s">
-        <v>564</v>
-      </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F14">
         <v>19</v>
@@ -3460,22 +3457,22 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S14" s="13" t="s">
         <v>22</v>
@@ -3486,28 +3483,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C15" t="s">
+        <v>567</v>
+      </c>
+      <c r="D15" t="s">
         <v>568</v>
       </c>
-      <c r="D15" t="s">
-        <v>569</v>
-      </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F15">
         <v>19</v>
       </c>
       <c r="I15" t="s">
+        <v>564</v>
+      </c>
+      <c r="O15" t="s">
         <v>565</v>
       </c>
-      <c r="O15" t="s">
+      <c r="R15" t="s">
         <v>566</v>
-      </c>
-      <c r="R15" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3515,28 +3512,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C16" t="s">
+        <v>569</v>
+      </c>
+      <c r="D16" t="s">
         <v>570</v>
       </c>
-      <c r="D16" t="s">
-        <v>571</v>
-      </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F16">
         <v>19</v>
       </c>
       <c r="I16" t="s">
+        <v>564</v>
+      </c>
+      <c r="O16" t="s">
         <v>565</v>
       </c>
-      <c r="O16" t="s">
+      <c r="R16" t="s">
         <v>566</v>
-      </c>
-      <c r="R16" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3544,28 +3541,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C17" t="s">
+        <v>571</v>
+      </c>
+      <c r="D17" t="s">
         <v>572</v>
       </c>
-      <c r="D17" t="s">
-        <v>573</v>
-      </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F17">
         <v>19</v>
       </c>
       <c r="I17" t="s">
+        <v>564</v>
+      </c>
+      <c r="O17" t="s">
         <v>565</v>
       </c>
-      <c r="O17" t="s">
+      <c r="R17" t="s">
         <v>566</v>
-      </c>
-      <c r="R17" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3573,28 +3570,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C18" t="s">
+        <v>573</v>
+      </c>
+      <c r="D18" t="s">
         <v>574</v>
       </c>
-      <c r="D18" t="s">
-        <v>575</v>
-      </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F18">
         <v>19</v>
       </c>
       <c r="I18" t="s">
+        <v>564</v>
+      </c>
+      <c r="O18" t="s">
         <v>565</v>
       </c>
-      <c r="O18" t="s">
+      <c r="R18" t="s">
         <v>566</v>
-      </c>
-      <c r="R18" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -3602,16 +3599,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C19" t="s">
+        <v>575</v>
+      </c>
+      <c r="D19" t="s">
         <v>576</v>
       </c>
-      <c r="D19" t="s">
-        <v>577</v>
-      </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F19">
         <v>19</v>
@@ -3619,7 +3616,7 @@
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
@@ -3627,12 +3624,12 @@
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S19" s="13" t="s">
         <v>22</v>
@@ -3643,16 +3640,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C20" t="s">
+        <v>577</v>
+      </c>
+      <c r="D20" t="s">
         <v>578</v>
       </c>
-      <c r="D20" t="s">
-        <v>579</v>
-      </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -3660,7 +3657,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -3668,12 +3665,12 @@
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S20" s="13" t="s">
         <v>22</v>
@@ -3684,16 +3681,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C21" t="s">
+        <v>580</v>
+      </c>
+      <c r="D21" t="s">
         <v>581</v>
       </c>
-      <c r="D21" t="s">
-        <v>582</v>
-      </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -3701,7 +3698,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -3709,12 +3706,12 @@
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S21" s="13" t="s">
         <v>22</v>
@@ -3725,25 +3722,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="E22" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F22" s="13">
         <v>2</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S22" s="13" t="s">
         <v>22</v>
@@ -3754,25 +3751,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>584</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F23" s="13">
         <v>200</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S23" s="13" t="s">
         <v>22</v>
@@ -3783,25 +3780,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>586</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F24" s="13">
         <v>20</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S24" s="13" t="s">
         <v>22</v>
@@ -3812,25 +3809,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>588</v>
-      </c>
       <c r="E25" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F25" s="13">
         <v>200</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S25" s="13" t="s">
         <v>22</v>
@@ -3841,25 +3838,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>590</v>
-      </c>
       <c r="E26" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F26" s="13">
         <v>20</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S26" s="13" t="s">
         <v>22</v>
@@ -3870,22 +3867,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C27" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>620</v>
-      </c>
       <c r="E27" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="13">
         <v>8</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -3893,25 +3890,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="E28" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F28" s="13">
         <v>40</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S28" s="13" t="s">
         <v>22</v>
@@ -3922,25 +3919,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="E29" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F29" s="13">
         <v>40</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S29" s="13" t="s">
         <v>22</v>
@@ -3951,28 +3948,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="E30" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="13">
         <v>8</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S30" s="13" t="s">
         <v>22</v>
@@ -3983,28 +3980,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="E31" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="13">
         <v>8</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S31" s="13" t="s">
         <v>22</v>
@@ -4015,16 +4012,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>622</v>
-      </c>
       <c r="E32" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
@@ -4035,16 +4032,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>624</v>
-      </c>
       <c r="E33" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F33" s="13">
         <v>1</v>
@@ -4055,28 +4052,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="E34" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="13">
         <v>8</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S34" s="13" t="s">
         <v>22</v>
@@ -4087,28 +4084,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="E35" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="13">
         <v>8</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R35" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S35" s="13" t="s">
         <v>22</v>
@@ -4119,25 +4116,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>592</v>
-      </c>
       <c r="E36" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F36" s="13">
         <v>2</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S36" s="13" t="s">
         <v>22</v>
@@ -4148,26 +4145,26 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>594</v>
-      </c>
       <c r="E37" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F37" s="13">
         <v>19</v>
       </c>
       <c r="H37"/>
       <c r="K37" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S37" s="13" t="s">
         <v>22</v>
@@ -4178,22 +4175,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C38" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>596</v>
-      </c>
       <c r="E38" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38" s="13">
         <v>8</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S38" s="13" t="s">
         <v>22</v>
@@ -4204,16 +4201,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D39" t="s">
         <v>597</v>
       </c>
-      <c r="D39" t="s">
-        <v>598</v>
-      </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -4224,25 +4221,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C40" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>554</v>
-      </c>
       <c r="E40" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F40" s="13">
         <v>80</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S40" s="13" t="s">
         <v>22</v>
@@ -4253,25 +4250,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>92</v>
-      </c>
       <c r="E41" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41" s="13">
         <v>8</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4279,16 +4276,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="E42" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" s="13">
         <v>8</v>
@@ -4299,28 +4296,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
         <v>95</v>
       </c>
-      <c r="D43" t="s">
-        <v>96</v>
-      </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43">
         <v>8</v>
       </c>
       <c r="G43"/>
       <c r="H43" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -4329,7 +4326,7 @@
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -4337,16 +4334,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="E44" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F44" s="13">
         <v>200</v>
@@ -4357,16 +4354,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C45" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="E45" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F45" s="13">
         <v>200</v>
@@ -4380,16 +4377,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C46" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="E46" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F46" s="13">
         <v>200</v>
@@ -4403,16 +4400,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="E47" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F47" s="13">
         <v>200</v>
@@ -4426,22 +4423,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C48" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>106</v>
-      </c>
       <c r="E48" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48" s="13">
         <v>8</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -4449,22 +4446,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="E49" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49" s="13">
         <v>8</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -4472,28 +4469,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C50" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>110</v>
-      </c>
       <c r="E50" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="13">
         <v>8</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R50" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -4501,25 +4498,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C51" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>112</v>
-      </c>
       <c r="E51" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F51" s="13">
         <v>200</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R51" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -4527,16 +4524,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C52" t="s">
+        <v>452</v>
+      </c>
+      <c r="D52" t="s">
         <v>453</v>
       </c>
-      <c r="D52" t="s">
-        <v>454</v>
-      </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F52">
         <v>200</v>
@@ -4547,16 +4544,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>606</v>
-      </c>
       <c r="E53" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F53" s="13">
         <v>8</v>
@@ -4567,16 +4564,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C54" t="s">
+        <v>454</v>
+      </c>
+      <c r="D54" t="s">
         <v>455</v>
       </c>
-      <c r="D54" t="s">
-        <v>456</v>
-      </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F54">
         <v>8</v>
@@ -4587,16 +4584,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C55" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>472</v>
-      </c>
       <c r="E55" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F55" s="13">
         <v>8</v>
@@ -4607,16 +4604,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F56" s="13">
         <v>8</v>
@@ -4627,16 +4624,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C57" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>475</v>
-      </c>
       <c r="E57" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="13">
         <v>8</v>
@@ -4647,16 +4644,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C58" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>477</v>
-      </c>
       <c r="E58" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="13">
         <v>8</v>
@@ -4667,16 +4664,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C59" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>479</v>
-      </c>
       <c r="E59" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F59" s="13">
         <v>8</v>
@@ -4687,16 +4684,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C60" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>540</v>
-      </c>
       <c r="E60" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F60" s="13">
         <v>8</v>
@@ -4707,16 +4704,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C61" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>600</v>
-      </c>
       <c r="E61" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F61" s="13">
         <v>8</v>
@@ -4727,16 +4724,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C62" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>544</v>
-      </c>
       <c r="E62" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F62" s="13">
         <v>8</v>
@@ -4747,16 +4744,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C63" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="D63" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>542</v>
-      </c>
       <c r="E63" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F63" s="13">
         <v>8</v>
@@ -4767,16 +4764,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C64" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>556</v>
-      </c>
       <c r="E64" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F64" s="13">
         <v>40</v>
@@ -4787,22 +4784,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C65" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>481</v>
-      </c>
       <c r="E65" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F65" s="13">
         <v>8</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4810,22 +4807,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C66" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="D66" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>483</v>
-      </c>
       <c r="E66" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F66" s="13">
         <v>8</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4833,22 +4830,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C67" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="D67" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>532</v>
-      </c>
       <c r="E67" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F67" s="13">
         <v>8</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4856,22 +4853,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C68" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="D68" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="D68" s="13" t="s">
-        <v>534</v>
-      </c>
       <c r="E68" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F68" s="13">
         <v>8</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4879,22 +4876,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C69" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>536</v>
-      </c>
       <c r="E69" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F69" s="13">
         <v>8</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4902,22 +4899,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C70" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>538</v>
-      </c>
       <c r="E70" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F70" s="13">
         <v>8</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4925,16 +4922,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C71" t="s">
+        <v>436</v>
+      </c>
+      <c r="D71" t="s">
         <v>437</v>
       </c>
-      <c r="D71" t="s">
-        <v>438</v>
-      </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F71">
         <v>200</v>
@@ -4945,16 +4942,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C72" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D72" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F72">
         <v>8</v>
@@ -4965,16 +4962,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C73" t="s">
+        <v>440</v>
+      </c>
+      <c r="D73" t="s">
         <v>441</v>
       </c>
-      <c r="D73" t="s">
-        <v>442</v>
-      </c>
       <c r="E73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F73">
         <v>8</v>
@@ -4985,16 +4982,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C74" t="s">
+        <v>442</v>
+      </c>
+      <c r="D74" t="s">
         <v>443</v>
       </c>
-      <c r="D74" t="s">
-        <v>444</v>
-      </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F74">
         <v>40</v>
@@ -5005,16 +5002,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C75" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="D75" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="D75" s="13" t="s">
-        <v>530</v>
-      </c>
       <c r="E75" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F75" s="13">
         <v>200</v>
@@ -5025,22 +5022,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C76" t="s">
+        <v>444</v>
+      </c>
+      <c r="D76" t="s">
         <v>445</v>
       </c>
-      <c r="D76" t="s">
-        <v>446</v>
-      </c>
       <c r="E76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F76">
         <v>8</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5048,22 +5045,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C77" t="s">
+        <v>446</v>
+      </c>
+      <c r="D77" t="s">
         <v>447</v>
       </c>
-      <c r="D77" t="s">
-        <v>448</v>
-      </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F77">
         <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5071,16 +5068,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C78" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="D78" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="D78" s="13" t="s">
-        <v>522</v>
-      </c>
       <c r="E78" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F78" s="13">
         <v>1</v>
@@ -5091,22 +5088,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C79" t="s">
+        <v>448</v>
+      </c>
+      <c r="D79" t="s">
         <v>449</v>
       </c>
-      <c r="D79" t="s">
-        <v>450</v>
-      </c>
       <c r="E79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F79">
         <v>8</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5114,16 +5111,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C80" t="s">
+        <v>450</v>
+      </c>
+      <c r="D80" t="s">
         <v>451</v>
       </c>
-      <c r="D80" t="s">
-        <v>452</v>
-      </c>
       <c r="E80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -5134,16 +5131,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C81" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="D81" s="13" t="s">
-        <v>602</v>
-      </c>
       <c r="E81" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F81" s="13">
         <v>200</v>
@@ -5154,16 +5151,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C82" t="s">
+        <v>456</v>
+      </c>
+      <c r="D82" t="s">
         <v>457</v>
       </c>
-      <c r="D82" t="s">
-        <v>458</v>
-      </c>
       <c r="E82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F82">
         <v>8</v>
@@ -5174,16 +5171,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C83" t="s">
+        <v>625</v>
+      </c>
+      <c r="D83" t="s">
         <v>626</v>
       </c>
-      <c r="D83" t="s">
-        <v>627</v>
-      </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F83">
         <v>40</v>
@@ -5194,16 +5191,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C84" t="s">
+        <v>458</v>
+      </c>
+      <c r="D84" t="s">
         <v>459</v>
       </c>
-      <c r="D84" t="s">
-        <v>460</v>
-      </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -5214,16 +5211,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C85" t="s">
+        <v>460</v>
+      </c>
+      <c r="D85" t="s">
         <v>461</v>
       </c>
-      <c r="D85" t="s">
-        <v>462</v>
-      </c>
       <c r="E85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F85">
         <v>8</v>
@@ -5234,16 +5231,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C86" t="s">
+        <v>462</v>
+      </c>
+      <c r="D86" t="s">
         <v>463</v>
       </c>
-      <c r="D86" t="s">
-        <v>464</v>
-      </c>
       <c r="E86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F86">
         <v>8</v>
@@ -5254,16 +5251,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C87" t="s">
+        <v>309</v>
+      </c>
+      <c r="D87" t="s">
         <v>310</v>
       </c>
-      <c r="D87" t="s">
-        <v>311</v>
-      </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F87">
         <v>20</v>
@@ -5274,16 +5271,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C88" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="D88" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="D88" s="13" t="s">
-        <v>518</v>
-      </c>
       <c r="E88" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F88" s="13">
         <v>200</v>
@@ -5294,16 +5291,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C89" t="s">
+        <v>550</v>
+      </c>
+      <c r="D89" t="s">
         <v>551</v>
       </c>
-      <c r="D89" t="s">
-        <v>552</v>
-      </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -5314,16 +5311,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C90" t="s">
+        <v>464</v>
+      </c>
+      <c r="D90" t="s">
         <v>465</v>
       </c>
-      <c r="D90" t="s">
-        <v>466</v>
-      </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -5334,16 +5331,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C91" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D91" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="D91" s="13" t="s">
-        <v>486</v>
-      </c>
       <c r="E91" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F91" s="13">
         <v>8</v>
@@ -5354,16 +5351,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C92" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="D92" s="13" t="s">
-        <v>488</v>
-      </c>
       <c r="E92" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F92" s="13">
         <v>40</v>
@@ -5374,16 +5371,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C93" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="D93" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="D93" s="13" t="s">
-        <v>490</v>
-      </c>
       <c r="E93" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F93" s="13">
         <v>200</v>
@@ -5394,16 +5391,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C94" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="D94" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="D94" s="13" t="s">
-        <v>492</v>
-      </c>
       <c r="E94" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F94" s="13">
         <v>8</v>
@@ -5414,16 +5411,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C95" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D95" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="D95" s="13" t="s">
-        <v>494</v>
-      </c>
       <c r="E95" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F95" s="13">
         <v>40</v>
@@ -5434,16 +5431,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C96" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D96" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="D96" s="13" t="s">
-        <v>496</v>
-      </c>
       <c r="E96" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F96" s="13">
         <v>40</v>
@@ -5454,16 +5451,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C97" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="D97" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="D97" s="13" t="s">
-        <v>498</v>
-      </c>
       <c r="E97" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F97" s="13">
         <v>8</v>
@@ -5474,16 +5471,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C98" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="D98" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="D98" s="13" t="s">
-        <v>500</v>
-      </c>
       <c r="E98" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F98" s="13">
         <v>8</v>
@@ -5494,16 +5491,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C99" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="D99" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="D99" s="13" t="s">
-        <v>502</v>
-      </c>
       <c r="E99" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F99" s="13">
         <v>200</v>
@@ -5514,16 +5511,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C100" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D100" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="D100" s="13" t="s">
-        <v>504</v>
-      </c>
       <c r="E100" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F100" s="13">
         <v>25</v>
@@ -5534,16 +5531,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C101" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="D101" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="D101" s="13" t="s">
-        <v>506</v>
-      </c>
       <c r="E101" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F101" s="13">
         <v>8</v>
@@ -5554,16 +5551,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C102" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D102" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="D102" s="13" t="s">
-        <v>508</v>
-      </c>
       <c r="E102" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F102" s="13">
         <v>40</v>
@@ -5574,16 +5571,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C103" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="D103" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="D103" s="13" t="s">
-        <v>510</v>
-      </c>
       <c r="E103" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F103" s="13">
         <v>8</v>
@@ -5594,16 +5591,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F104" s="13">
         <v>200</v>
@@ -5614,16 +5611,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C105" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D105" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="D105" s="13" t="s">
-        <v>514</v>
-      </c>
       <c r="E105" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F105" s="13">
         <v>40</v>
@@ -5634,16 +5631,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C106" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="D106" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="D106" s="13" t="s">
-        <v>516</v>
-      </c>
       <c r="E106" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F106" s="13">
         <v>200</v>
@@ -5654,16 +5651,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C107" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="D107" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="D107" s="13" t="s">
-        <v>520</v>
-      </c>
       <c r="E107" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F107" s="13">
         <v>8</v>
@@ -5674,22 +5671,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C108" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D108" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="D108" s="13" t="s">
-        <v>524</v>
-      </c>
       <c r="E108" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F108" s="13">
         <v>8</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -5697,22 +5694,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C109" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="D109" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="D109" s="13" t="s">
-        <v>526</v>
-      </c>
       <c r="E109" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F109" s="13">
         <v>8</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -5720,22 +5717,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C110" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="D110" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="D110" s="13" t="s">
-        <v>528</v>
-      </c>
       <c r="E110" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F110" s="13">
         <v>8</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -5743,22 +5740,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C111" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="D111" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="D111" s="13" t="s">
-        <v>558</v>
-      </c>
       <c r="E111" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F111" s="13">
         <v>8</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -5766,22 +5763,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C112" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="D112" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="D112" s="13" t="s">
-        <v>560</v>
-      </c>
       <c r="E112" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F112" s="13">
         <v>8</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -5789,22 +5786,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C113" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="D113" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="D113" s="13" t="s">
-        <v>562</v>
-      </c>
       <c r="E113" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F113" s="13">
         <v>8</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -5812,16 +5809,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C114" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="D114" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="D114" s="13" t="s">
-        <v>546</v>
-      </c>
       <c r="E114" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F114" s="13">
         <v>8</v>
@@ -5832,16 +5829,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C115" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="D115" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="D115" s="13" t="s">
-        <v>548</v>
-      </c>
       <c r="E115" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F115" s="13">
         <v>8</v>
@@ -5852,16 +5849,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C116" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D116" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="D116" s="13" t="s">
-        <v>550</v>
-      </c>
       <c r="E116" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F116" s="13">
         <v>8</v>
@@ -5872,16 +5869,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C117" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="D117" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="D117" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="E117" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F117" s="13">
         <v>40</v>
@@ -5892,16 +5889,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C118" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D118" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="D118" s="13" t="s">
-        <v>610</v>
-      </c>
       <c r="E118" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F118" s="13">
         <v>40</v>
@@ -5912,16 +5909,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C119" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="D119" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="D119" s="13" t="s">
-        <v>612</v>
-      </c>
       <c r="E119" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F119" s="13">
         <v>40</v>
@@ -5932,16 +5929,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C120" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="D120" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="D120" s="13" t="s">
-        <v>604</v>
-      </c>
       <c r="E120" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F120" s="13">
         <v>8</v>
@@ -5952,16 +5949,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C121" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D121" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="D121" s="13" t="s">
-        <v>614</v>
-      </c>
       <c r="E121" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F121" s="13">
         <v>8</v>
@@ -5972,16 +5969,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C122" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="D122" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="D122" s="13" t="s">
-        <v>616</v>
-      </c>
       <c r="E122" s="13" t="s">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="F122" s="13">
         <v>8</v>
@@ -5992,16 +5989,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F123" s="13">
         <v>8</v>
@@ -6055,7 +6052,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>29</v>
@@ -6088,10 +6085,10 @@
         <v>38</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -8785,7 +8782,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
@@ -8794,7 +8791,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -8834,13 +8831,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>29</v>
@@ -8849,216 +8846,216 @@
         <v>26</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="J1" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>125</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>129</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="44" t="s">
         <v>132</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="44" t="s">
         <v>136</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="44" t="s">
         <v>139</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="44" t="s">
         <v>141</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F26" s="44">
         <v>1</v>
@@ -9066,343 +9063,343 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="44" t="s">
         <v>154</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F52" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="44" t="s">
         <v>181</v>
-      </c>
-      <c r="F53" s="44" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F54" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F56" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F57" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F58" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F59" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F60" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F62" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F63" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F64" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F65" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F66" s="44" t="s">
         <v>195</v>
-      </c>
-      <c r="F66" s="44" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F67" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F68" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F69" s="44">
         <v>1</v>
@@ -9410,7 +9407,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F70" s="44">
         <v>2</v>
@@ -9418,7 +9415,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F71" s="44">
         <v>3</v>
@@ -9426,7 +9423,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F72" s="44">
         <v>4</v>
@@ -9434,127 +9431,127 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F73" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F74" s="44" t="s">
         <v>200</v>
-      </c>
-      <c r="F74" s="44" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F75" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F76" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F77" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F78" s="44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F79" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F80" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F81" s="44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F82" s="44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F83" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F84" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F85" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F86" s="44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F87" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F88" s="44">
         <v>0</v>
@@ -9562,7 +9559,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F89" s="44">
         <v>1</v>
@@ -9570,567 +9567,567 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" s="44" t="s">
         <v>215</v>
-      </c>
-      <c r="F90" s="44" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F91" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F92" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="F93" s="44" t="s">
         <v>219</v>
-      </c>
-      <c r="F93" s="44" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F94" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="F95" s="44" t="s">
         <v>222</v>
-      </c>
-      <c r="F95" s="44" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F96" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F97" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F98" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="F99" s="44" t="s">
         <v>227</v>
-      </c>
-      <c r="F99" s="44" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="F100" s="44" t="s">
         <v>229</v>
-      </c>
-      <c r="F100" s="44" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="F104" s="44" t="s">
         <v>231</v>
-      </c>
-      <c r="F104" s="44" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F105" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F106" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F107" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F108" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F109" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F110" s="44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F111" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F112" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F113" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F114" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F115" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F116" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F117" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F118" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F119" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F120" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F121" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F122" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F123" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F124" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F125" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F126" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F127" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F128" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F129" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F130" s="44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F131" s="44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F132" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F133" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F134" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F135" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F136" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F137" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F138" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F139" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F140" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F141" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F142" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F143" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F144" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F145" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F146" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F147" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F148" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F149" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F150" s="44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F151" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="F152" s="44" t="s">
         <v>277</v>
-      </c>
-      <c r="F152" s="44" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F153" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F154" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F155" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F156" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="F157" s="44" t="s">
         <v>282</v>
-      </c>
-      <c r="F157" s="44" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F158" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="F159" s="44" t="s">
         <v>285</v>
-      </c>
-      <c r="F159" s="44" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F160" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="F161" s="44" t="s">
         <v>288</v>
-      </c>
-      <c r="F161" s="44" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F162" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F163" s="44">
         <v>1</v>
@@ -10138,800 +10135,800 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F164" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F165" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F166" s="44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F167" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F168" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F169" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F170" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="F171" s="46" t="s">
         <v>299</v>
-      </c>
-      <c r="F171" s="46" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="F172" s="44" t="s">
         <v>301</v>
-      </c>
-      <c r="F172" s="44" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F173" s="44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="F174" s="44" t="s">
         <v>304</v>
-      </c>
-      <c r="F174" s="44" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F175" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="F176" s="44" t="s">
         <v>307</v>
-      </c>
-      <c r="F176" s="44" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F177" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F178" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="179" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B179" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B179" s="52" t="s">
+      <c r="C179" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C179" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D179" s="52"/>
       <c r="F179" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="G179" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="G179" s="52" t="s">
+      <c r="H179" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="H179" s="52" t="s">
+      <c r="I179" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J179" s="52" t="s">
         <v>315</v>
-      </c>
-      <c r="I179" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J179" s="52" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="180" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B180" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B180" s="52" t="s">
+      <c r="C180" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C180" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D180" s="52"/>
       <c r="F180" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="G180" s="52" t="s">
         <v>317</v>
       </c>
-      <c r="G180" s="52" t="s">
+      <c r="H180" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="H180" s="52" t="s">
+      <c r="I180" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J180" s="52" t="s">
         <v>319</v>
-      </c>
-      <c r="I180" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J180" s="52" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="181" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B181" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B181" s="52" t="s">
+      <c r="C181" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C181" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D181" s="52"/>
       <c r="F181" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="G181" s="52" t="s">
         <v>321</v>
       </c>
-      <c r="G181" s="52" t="s">
+      <c r="H181" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="H181" s="52" t="s">
+      <c r="I181" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J181" s="52" t="s">
         <v>323</v>
-      </c>
-      <c r="I181" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J181" s="52" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="182" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B182" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B182" s="52" t="s">
+      <c r="C182" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C182" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D182" s="52"/>
       <c r="F182" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="G182" s="52" t="s">
         <v>325</v>
       </c>
-      <c r="G182" s="52" t="s">
+      <c r="H182" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="H182" s="52" t="s">
+      <c r="I182" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J182" s="52" t="s">
         <v>327</v>
-      </c>
-      <c r="I182" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J182" s="52" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="183" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B183" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B183" s="52" t="s">
+      <c r="C183" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C183" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D183" s="52"/>
       <c r="F183" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="G183" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="G183" s="52" t="s">
+      <c r="H183" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="H183" s="52" t="s">
+      <c r="I183" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J183" s="52" t="s">
         <v>331</v>
-      </c>
-      <c r="I183" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J183" s="52" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="184" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B184" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B184" s="52" t="s">
+      <c r="C184" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C184" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D184" s="52"/>
       <c r="F184" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="G184" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="G184" s="52" t="s">
+      <c r="H184" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="H184" s="52" t="s">
+      <c r="I184" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J184" s="52" t="s">
         <v>335</v>
-      </c>
-      <c r="I184" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J184" s="52" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="185" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B185" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B185" s="52" t="s">
+      <c r="C185" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C185" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D185" s="52"/>
       <c r="F185" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="G185" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="G185" s="52" t="s">
+      <c r="H185" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="H185" s="52" t="s">
+      <c r="I185" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J185" s="52" t="s">
         <v>339</v>
-      </c>
-      <c r="I185" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J185" s="52" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="186" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B186" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B186" s="52" t="s">
+      <c r="C186" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C186" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D186" s="52"/>
       <c r="F186" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="G186" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="G186" s="52" t="s">
+      <c r="H186" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="H186" s="52" t="s">
+      <c r="I186" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J186" s="52" t="s">
         <v>343</v>
-      </c>
-      <c r="I186" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J186" s="52" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="187" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B187" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B187" s="52" t="s">
+      <c r="C187" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C187" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D187" s="52"/>
       <c r="F187" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="G187" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="G187" s="52" t="s">
+      <c r="H187" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="H187" s="52" t="s">
+      <c r="I187" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J187" s="52" t="s">
         <v>347</v>
-      </c>
-      <c r="I187" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J187" s="52" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="188" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B188" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B188" s="52" t="s">
+      <c r="C188" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C188" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D188" s="52"/>
       <c r="F188" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="G188" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G188" s="52" t="s">
+      <c r="H188" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="H188" s="52" t="s">
+      <c r="I188" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J188" s="52" t="s">
         <v>351</v>
-      </c>
-      <c r="I188" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J188" s="52" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="189" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B189" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B189" s="52" t="s">
+      <c r="C189" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C189" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D189" s="52"/>
       <c r="F189" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="G189" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="G189" s="52" t="s">
+      <c r="H189" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="H189" s="52" t="s">
+      <c r="I189" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J189" s="52" t="s">
         <v>355</v>
-      </c>
-      <c r="I189" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J189" s="52" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="190" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B190" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B190" s="52" t="s">
+      <c r="C190" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C190" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D190" s="52"/>
       <c r="F190" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="G190" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="G190" s="52" t="s">
+      <c r="H190" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="H190" s="52" t="s">
+      <c r="I190" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J190" s="52" t="s">
         <v>359</v>
-      </c>
-      <c r="I190" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J190" s="52" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="191" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B191" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B191" s="52" t="s">
+      <c r="C191" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C191" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D191" s="52"/>
       <c r="F191" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="G191" s="52" t="s">
         <v>361</v>
       </c>
-      <c r="G191" s="52" t="s">
+      <c r="H191" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="H191" s="52" t="s">
+      <c r="I191" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J191" s="52" t="s">
         <v>363</v>
-      </c>
-      <c r="I191" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J191" s="52" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="192" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B192" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B192" s="52" t="s">
+      <c r="C192" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C192" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D192" s="52"/>
       <c r="F192" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="G192" s="52" t="s">
         <v>365</v>
       </c>
-      <c r="G192" s="52" t="s">
+      <c r="H192" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="H192" s="52" t="s">
+      <c r="I192" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J192" s="52" t="s">
         <v>367</v>
-      </c>
-      <c r="I192" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J192" s="52" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B193" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B193" s="52" t="s">
+      <c r="C193" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C193" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D193" s="52"/>
       <c r="F193" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="G193" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="G193" s="52" t="s">
+      <c r="H193" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H193" s="52" t="s">
+      <c r="I193" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J193" s="52" t="s">
         <v>371</v>
-      </c>
-      <c r="I193" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J193" s="52" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="194" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B194" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B194" s="52" t="s">
+      <c r="C194" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C194" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D194" s="52"/>
       <c r="F194" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="G194" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="G194" s="52" t="s">
+      <c r="H194" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="H194" s="52" t="s">
+      <c r="I194" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J194" s="52" t="s">
         <v>375</v>
-      </c>
-      <c r="I194" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J194" s="52" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="195" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B195" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B195" s="52" t="s">
+      <c r="C195" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C195" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D195" s="52"/>
       <c r="E195" s="47"/>
       <c r="F195" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="G195" s="52" t="s">
         <v>377</v>
       </c>
-      <c r="G195" s="52" t="s">
+      <c r="H195" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="H195" s="52" t="s">
+      <c r="I195" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J195" s="52" t="s">
         <v>379</v>
-      </c>
-      <c r="I195" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J195" s="52" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="196" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B196" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B196" s="52" t="s">
+      <c r="C196" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C196" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D196" s="52"/>
       <c r="E196" s="47"/>
       <c r="F196" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="G196" s="52" t="s">
         <v>381</v>
       </c>
-      <c r="G196" s="52" t="s">
+      <c r="H196" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="H196" s="52" t="s">
+      <c r="I196" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J196" s="52" t="s">
         <v>383</v>
-      </c>
-      <c r="I196" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J196" s="52" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B197" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B197" s="52" t="s">
+      <c r="C197" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C197" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D197" s="52"/>
       <c r="E197" s="47"/>
       <c r="F197" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="G197" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="G197" s="52" t="s">
+      <c r="H197" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="H197" s="52" t="s">
+      <c r="I197" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J197" s="52" t="s">
         <v>387</v>
-      </c>
-      <c r="I197" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J197" s="52" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="198" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B198" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B198" s="52" t="s">
+      <c r="C198" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C198" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D198" s="52"/>
       <c r="E198" s="47"/>
       <c r="F198" s="52" t="s">
+        <v>388</v>
+      </c>
+      <c r="G198" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="G198" s="52" t="s">
+      <c r="H198" s="52" t="s">
         <v>390</v>
       </c>
-      <c r="H198" s="52" t="s">
+      <c r="I198" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J198" s="52" t="s">
         <v>391</v>
-      </c>
-      <c r="I198" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J198" s="52" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B199" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B199" s="52" t="s">
+      <c r="C199" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C199" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D199" s="52"/>
       <c r="E199" s="47"/>
       <c r="F199" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="G199" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="G199" s="52" t="s">
+      <c r="H199" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="H199" s="52" t="s">
+      <c r="I199" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J199" s="52" t="s">
         <v>395</v>
-      </c>
-      <c r="I199" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J199" s="52" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="200" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B200" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B200" s="52" t="s">
+      <c r="C200" s="52" t="s">
         <v>311</v>
-      </c>
-      <c r="C200" s="52" t="s">
-        <v>312</v>
       </c>
       <c r="D200" s="52"/>
       <c r="E200" s="47"/>
       <c r="F200" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="G200" s="52" t="s">
         <v>397</v>
       </c>
-      <c r="G200" s="52" t="s">
+      <c r="H200" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="H200" s="52" t="s">
+      <c r="I200" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J200" s="52" t="s">
         <v>399</v>
-      </c>
-      <c r="I200" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J200" s="52" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="201" spans="1:10" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="B201" s="54" t="s">
+      <c r="C201" t="s">
         <v>402</v>
-      </c>
-      <c r="C201" t="s">
-        <v>403</v>
       </c>
       <c r="D201" s="47"/>
       <c r="E201" s="47"/>
       <c r="F201" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G201" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="H201" s="49" t="s">
         <v>404</v>
-      </c>
-      <c r="H201" s="49" t="s">
-        <v>405</v>
       </c>
       <c r="I201" s="47"/>
       <c r="J201" s="50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="202" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="B202" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="B202" s="54" t="s">
+      <c r="C202" t="s">
         <v>402</v>
-      </c>
-      <c r="C202" t="s">
-        <v>403</v>
       </c>
       <c r="D202" s="47"/>
       <c r="E202" s="47"/>
       <c r="F202" s="51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G202" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="H202" s="49" t="s">
         <v>407</v>
-      </c>
-      <c r="H202" s="49" t="s">
-        <v>408</v>
       </c>
       <c r="I202" s="47"/>
       <c r="J202" s="50" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="203" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="B203" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="B203" s="54" t="s">
+      <c r="C203" t="s">
         <v>402</v>
-      </c>
-      <c r="C203" t="s">
-        <v>403</v>
       </c>
       <c r="D203" s="47"/>
       <c r="E203" s="47"/>
       <c r="F203" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="G203" s="54" t="s">
         <v>410</v>
       </c>
-      <c r="G203" s="54" t="s">
+      <c r="H203" s="49" t="s">
         <v>411</v>
-      </c>
-      <c r="H203" s="49" t="s">
-        <v>412</v>
       </c>
       <c r="I203" s="47"/>
       <c r="J203" s="50" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -10960,47 +10957,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" t="s">
         <v>416</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>417</v>
       </c>
-      <c r="C2" t="s">
-        <v>418</v>
-      </c>
       <c r="D2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" t="s">
         <v>419</v>
       </c>
-      <c r="B3" t="s">
-        <v>420</v>
-      </c>
       <c r="C3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" t="s">
         <v>418</v>
-      </c>
-      <c r="D3" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -11029,25 +11026,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>36</v>
@@ -11075,13 +11072,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>36</v>
@@ -11093,8 +11090,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9EE868304B98441AD61F888FD64FF20" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e9f0137ec3e14058aaef241289fcc74">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="921987c0-c4c4-4810-b0c0-7f1c7905708e" xmlns:ns4="6f97e022-9e66-460e-b146-2641bda6a8a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea7b9477b2a75f51021498292c096b1e" ns3:_="" ns4:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9EE868304B98441AD61F888FD64FF20" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72bf53b7ba6e28eeb2576c46cc2657e3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="921987c0-c4c4-4810-b0c0-7f1c7905708e" xmlns:ns4="6f97e022-9e66-460e-b146-2641bda6a8a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d395b7fd7c1a7ef0b10dfdf9b6df3f78" ns3:_="" ns4:_="">
     <xsd:import namespace="921987c0-c4c4-4810-b0c0-7f1c7905708e"/>
     <xsd:import namespace="6f97e022-9e66-460e-b146-2641bda6a8a8"/>
     <xsd:element name="properties">
@@ -11116,6 +11119,7 @@
                 <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -11178,6 +11182,11 @@
     <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -11315,7 +11324,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11324,14 +11333,25 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86A79FD3-11CC-4B00-9F3B-42385DD09AE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6f97e022-9e66-460e-b146-2641bda6a8a8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="921987c0-c4c4-4810-b0c0-7f1c7905708e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8D541B-D2A9-483D-AB21-E80DF81091B7}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84F53DD2-3F61-429F-A289-722E6B0C57D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -11349,27 +11369,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9DD4294-9B89-4E84-B51F-80BC45B05BDA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86A79FD3-11CC-4B00-9F3B-42385DD09AE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="921987c0-c4c4-4810-b0c0-7f1c7905708e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6f97e022-9e66-460e-b146-2641bda6a8a8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>